--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed5/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.274700000000001</v>
+        <v>-7.477000000000004</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.49819999999999</v>
+        <v>-10.47379999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.874499999999991</v>
+        <v>-6.905499999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.1694</v>
+        <v>-12.58449999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.307999999999997</v>
+        <v>-7.259099999999997</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.244699999999999</v>
+        <v>5.2851</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.280699999999997</v>
+        <v>4.941199999999994</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.1208</v>
+        <v>-12.9412</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,13 +686,13 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.1873</v>
+        <v>4.790599999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.259199999999998</v>
+        <v>-8.385499999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.769299999999999</v>
+        <v>-7.7187</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.781399999999999</v>
+        <v>-7.522300000000002</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.612600000000002</v>
+        <v>-7.807000000000003</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.62539999999999</v>
+        <v>-11.6483</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.458900000000005</v>
+        <v>6.378300000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.282399999999994</v>
+        <v>-9.150700000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -907,13 +907,13 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.026500000000004</v>
+        <v>6.348600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.221000000000002</v>
+        <v>-8.170499999999997</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.083900000000004</v>
+        <v>-7.216700000000007</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.406299999999999</v>
+        <v>4.158999999999997</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.3979</v>
+        <v>-13.7212</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,13 +975,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.557800000000002</v>
+        <v>6.675399999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.529299999999992</v>
+        <v>-8.622499999999997</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.0373</v>
+        <v>-12.20790000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.964799999999999</v>
+        <v>9.266399999999997</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.0513</v>
+        <v>-13.17319999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.445699999999999</v>
+        <v>5.528200000000003</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.5385</v>
+        <v>-12.488</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.62160000000001</v>
+        <v>-13.526</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.097900000000006</v>
+        <v>-7.181200000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.21819999999999</v>
+        <v>-13.5905</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.228700000000003</v>
+        <v>7.159899999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.637300000000002</v>
+        <v>-7.6163</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9071</v>
+        <v>-10.9677</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.762099999999999</v>
+        <v>4.678499999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.271599999999998</v>
+        <v>5.279399999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.561700000000003</v>
+        <v>4.837200000000003</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.40519999999999</v>
+        <v>-14.27419999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.967099999999997</v>
+        <v>-7.932899999999997</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.527299999999991</v>
+        <v>-8.496399999999992</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.003899999999994</v>
+        <v>4.894299999999992</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.709899999999993</v>
+        <v>5.455499999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.424900000000001</v>
+        <v>5.603300000000002</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.378599999999992</v>
+        <v>8.759400000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.732699999999998</v>
+        <v>-5.840899999999998</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.5323</v>
+        <v>-7.585999999999999</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.31019999999999</v>
+        <v>-13.61869999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.184099999999995</v>
+        <v>5.267099999999995</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.2412</v>
+        <v>-13.576</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.535900000000003</v>
+        <v>-8.506500000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.9129</v>
+        <v>4.830100000000003</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.055799999999998</v>
+        <v>-6.123999999999996</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.0485</v>
+        <v>4.923699999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.030199999999997</v>
+        <v>-6.110699999999996</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.859499999999998</v>
+        <v>-6.051099999999998</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.249400000000001</v>
+        <v>6.7022</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.400600000000006</v>
+        <v>-7.575500000000008</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.745100000000001</v>
+        <v>4.629299999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.5992</v>
+        <v>-12.93319999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.5436</v>
+        <v>-13.74159999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.778699999999998</v>
+        <v>-7.727199999999997</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
